--- a/results/BC_evaluation.xlsx
+++ b/results/BC_evaluation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bfd6ca34236f9a4/Documents/Personal/Projects/Graduation Project (Ahmad)/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="11_F25DC773A252ABDACC104848215A46305BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B00F809E-C5B4-42E4-BF09-8E41AD6D4BB5}"/>
+  <xr:revisionPtr revIDLastSave="592" documentId="11_F25DC773A252ABDACC104848215A46305BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE1ACB4B-6648-4EDD-99ED-24F1D1F451B3}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4284" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33168" yWindow="-240" windowWidth="18936" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="500" sheetId="1" r:id="rId1"/>
+    <sheet name="4800" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t xml:space="preserve">Logistic Regression </t>
   </si>
@@ -74,10 +75,25 @@
     <t>Sexual harrasment / Not Sexual harrasment</t>
   </si>
   <si>
-    <t>Data - 500 Responses</t>
+    <t>average accuracy (across different lables)</t>
   </si>
   <si>
-    <t>average accuracy (across different lables)</t>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Data - 500 Responses  (Accuracy)</t>
+  </si>
+  <si>
+    <t>average precision (across different lables)</t>
+  </si>
+  <si>
+    <t>Data - 500 Responses (Precision)</t>
+  </si>
+  <si>
+    <t>Data - 4800 Responses  (Accuracy)</t>
+  </si>
+  <si>
+    <t>Data - 4800 Responses (Precision +)</t>
   </si>
 </sst>
 </file>
@@ -137,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +184,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -309,33 +331,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -356,11 +371,44 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -378,6 +426,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -643,245 +695,709 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H11"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="8" width="24" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.71929824561403499</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.64912280701754299</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.77192982456140302</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.82456140350877105</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.80701754385964897</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.61403508771929804</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.80701754385964897</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.82456140350877105</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.75438596491228005</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.75438596491228005</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.75438596491228005</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.73684210526315697</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.73684210526315697</v>
+      </c>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.91228070175438503</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.91228070175438503</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.80701754385964897</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.71929824561403499</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.87719298245613997</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.91228070175438503</v>
+      </c>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.77192982456140302</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.77192982456140302</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.61403508771929804</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.64912280701754299</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.70175438596491202</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.87719298245613997</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.87719298245613997</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.80701754385964897</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.80701754385964897</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.859649122807017</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.87719298245613997</v>
+      </c>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.91228070175438503</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.91228070175438503</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.80701754385964897</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.87719298245613997</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.91228070175438503</v>
+      </c>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.84210526315789402</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.84210526315789402</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.71929824561403499</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.64912280701754299</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.77192982456140302</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0.82456140350877105</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.84210526315789402</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.84210526315789402</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.80701754385964897</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.61403508771929804</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.80701754385964897</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0.82456140350877105</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.75438596491228005</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.75438596491228005</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.75438596491228005</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.73684210526315697</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.73684210526315697</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.91228070175438503</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.91228070175438503</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.80701754385964897</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.71929824561403499</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.87719298245613997</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0.91228070175438503</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.77192982456140302</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.77192982456140302</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.61403508771929804</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.64912280701754299</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0.70175438596491202</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.87719298245613997</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0.87719298245613997</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.80701754385964897</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0.80701754385964897</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.859649122807017</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0.87719298245613997</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.91228070175438503</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.91228070175438503</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.80701754385964897</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.87719298245613997</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0.91228070175438503</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="15">
-        <f>AVERAGE(C4:C10)</f>
+      <c r="C12" s="23">
+        <f>AVERAGE(C5:C11)</f>
         <v>0.84461152882205448</v>
       </c>
-      <c r="D11" s="15">
-        <f>AVERAGE(D4:D10)</f>
+      <c r="D12" s="23">
+        <f>AVERAGE(D5:D11)</f>
         <v>0.84461152882205448</v>
       </c>
-      <c r="E11" s="15">
-        <f>AVERAGE(E4:E10)</f>
+      <c r="E12" s="23">
+        <f>AVERAGE(E5:E11)</f>
         <v>0.76691729323308244</v>
       </c>
-      <c r="F11" s="15">
-        <f t="shared" ref="E11:H11" si="0">AVERAGE(F4:F10)</f>
+      <c r="F12" s="23">
+        <f t="shared" ref="F12:H12" si="0">AVERAGE(F5:F11)</f>
         <v>0.67669172932330801</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G12" s="23">
         <f t="shared" si="0"/>
         <v>0.79699248120300703</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H12" s="23">
         <f t="shared" si="0"/>
         <v>0.82706766917293151</v>
       </c>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="23">
+        <f>AVERAGE(C17:C23)</f>
+        <v>0.12</v>
+      </c>
+      <c r="D24" s="23">
+        <f>AVERAGE(D17:D23)</f>
+        <v>0.12</v>
+      </c>
+      <c r="E24" s="23">
+        <f>AVERAGE(E17:E23)</f>
+        <v>0.24428571428571436</v>
+      </c>
+      <c r="F24" s="23">
+        <f t="shared" ref="F24:H24" si="1">AVERAGE(F17:F23)</f>
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="G24" s="23">
+        <f t="shared" si="1"/>
+        <v>0.20714285714285713</v>
+      </c>
+      <c r="H24" s="23">
+        <f t="shared" si="1"/>
+        <v>0.1957142857142857</v>
+      </c>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B15:H15"/>
   </mergeCells>
-  <conditionalFormatting sqref="C4:H4">
+  <conditionalFormatting sqref="C5:H5">
+    <cfRule type="iconSet" priority="20">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:H6">
+    <cfRule type="iconSet" priority="19">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:H7">
+    <cfRule type="iconSet" priority="18">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:H8">
+    <cfRule type="iconSet" priority="17">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:H9">
+    <cfRule type="iconSet" priority="16">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:H10">
+    <cfRule type="iconSet" priority="15">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:H11">
+    <cfRule type="iconSet" priority="14">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:H17">
+    <cfRule type="iconSet" priority="13">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:H18">
+    <cfRule type="iconSet" priority="12">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:H19">
+    <cfRule type="iconSet" priority="11">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:H20">
+    <cfRule type="iconSet" priority="10">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:H21">
+    <cfRule type="iconSet" priority="9">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:H22">
+    <cfRule type="iconSet" priority="8">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:H23">
     <cfRule type="iconSet" priority="7">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -890,7 +1406,762 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C23">
+    <cfRule type="iconSet" priority="6">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D23">
+    <cfRule type="iconSet" priority="5">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E23">
+    <cfRule type="iconSet" priority="4">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F23">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G23">
+    <cfRule type="iconSet" priority="2">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H23">
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A5FF3B-D438-4340-926F-E49FA861B261}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="36.21875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.72198275862068895</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.72413793103448199</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.65301724137931005</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.65086206896551702</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.67456896551724099</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.71120689655172398</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.87715517241379304</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.87715517241379304</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.83189655172413701</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.80818965517241304</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.86853448275862</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.87284482758620596</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.81681034482758597</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.818965517241379</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.74784482758620596</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.74137931034482696</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.76077586206896497</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.80603448275862</v>
+      </c>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.89870689655172398</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.89870689655172398</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.83189655172413701</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.81465517241379304</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.881465517241379</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.77155172413793105</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.77155172413793105</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.67241379310344795</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.693965517241379</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.72629310344827502</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.74137931034482696</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.90948275862068895</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.881465517241379</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.83405172413793105</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.89224137931034397</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.90732758620689602</v>
+      </c>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.89870689655172398</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.89870689655172398</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.83189655172413701</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.881465517241379</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="23">
+        <f>AVERAGE(C5:C11)</f>
+        <v>0.71213054187192093</v>
+      </c>
+      <c r="D12" s="23">
+        <f>AVERAGE(D5:D11)</f>
+        <v>0.8426724137931032</v>
+      </c>
+      <c r="E12" s="23">
+        <f>AVERAGE(E5:E11)</f>
+        <v>0.77863300492610776</v>
+      </c>
+      <c r="F12" s="23">
+        <f t="shared" ref="F12:H12" si="0">AVERAGE(F5:F11)</f>
+        <v>0.76508620689655149</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.81219211822660042</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.83312807881773365</v>
+      </c>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.90948275862068895</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="23">
+        <f>AVERAGE(C17:C23)</f>
+        <v>0.30564039408866989</v>
+      </c>
+      <c r="D24" s="23">
+        <f>AVERAGE(D17:D23)</f>
+        <v>0.10285714285714286</v>
+      </c>
+      <c r="E24" s="23">
+        <f>AVERAGE(E17:E23)</f>
+        <v>0.26428571428571429</v>
+      </c>
+      <c r="F24" s="23">
+        <f t="shared" ref="F24:H24" si="1">AVERAGE(F17:F23)</f>
+        <v>0.27714285714285714</v>
+      </c>
+      <c r="G24" s="23">
+        <f t="shared" si="1"/>
+        <v>0.2971428571428571</v>
+      </c>
+      <c r="H24" s="23">
+        <f t="shared" si="1"/>
+        <v>0.33714285714285719</v>
+      </c>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B15:H15"/>
+  </mergeCells>
   <conditionalFormatting sqref="C5:H5">
+    <cfRule type="iconSet" priority="32">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:H6">
+    <cfRule type="iconSet" priority="31">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:H8 H7">
+    <cfRule type="iconSet" priority="29">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:H9">
+    <cfRule type="iconSet" priority="28">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:H10">
+    <cfRule type="iconSet" priority="27">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:H11">
+    <cfRule type="iconSet" priority="26">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:H17">
+    <cfRule type="iconSet" priority="25">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:H18">
+    <cfRule type="iconSet" priority="24">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:H20 H19">
+    <cfRule type="iconSet" priority="22">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:H21">
+    <cfRule type="iconSet" priority="21">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:H22">
+    <cfRule type="iconSet" priority="20">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:H23">
+    <cfRule type="iconSet" priority="19">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C23">
     <cfRule type="iconSet" priority="6">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -899,7 +2170,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:H6">
+  <conditionalFormatting sqref="D17:D23">
     <cfRule type="iconSet" priority="5">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -908,7 +2179,115 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:H7">
+  <conditionalFormatting sqref="E17:E18 E20:E23">
+    <cfRule type="iconSet" priority="16">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F18 F20:F23 E19">
+    <cfRule type="iconSet" priority="15">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18 G20:G23 F19">
+    <cfRule type="iconSet" priority="14">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H18 H20:H23 G19:H19">
+    <cfRule type="iconSet" priority="13">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:G7">
+    <cfRule type="iconSet" priority="33">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:G19">
+    <cfRule type="iconSet" priority="34">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C11">
+    <cfRule type="iconSet" priority="12">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D11">
+    <cfRule type="iconSet" priority="11">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E11">
+    <cfRule type="iconSet" priority="10">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
+    <cfRule type="iconSet" priority="9">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G11">
+    <cfRule type="iconSet" priority="8">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H11">
+    <cfRule type="iconSet" priority="7">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E23">
     <cfRule type="iconSet" priority="4">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -917,7 +2296,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:H8">
+  <conditionalFormatting sqref="F17:F23">
     <cfRule type="iconSet" priority="3">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -926,7 +2305,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:H9">
+  <conditionalFormatting sqref="G17:G23">
     <cfRule type="iconSet" priority="2">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -935,7 +2314,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:H10">
+  <conditionalFormatting sqref="H17:H23">
     <cfRule type="iconSet" priority="1">
       <iconSet>
         <cfvo type="percent" val="0"/>
